--- a/RunningDinner.xlsx
+++ b/RunningDinner.xlsx
@@ -2,41 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\KUH\RunningDinner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCC2082-0380-4CE2-BCC2-B0776D6F191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941BD90F-685F-4444-9E59-E6E0C60B57F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2685" windowWidth="29040" windowHeight="15720" xr2:uid="{71D656BC-E693-44D9-A498-98D403816A29}"/>
+    <workbookView xWindow="-28800" yWindow="5445" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="12">
   <si>
     <t>Vorspeise</t>
   </si>
@@ -44,34 +28,34 @@
     <t>a</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
+    <t>Hauptgang</t>
+  </si>
+  <si>
     <t>Dessert</t>
-  </si>
-  <si>
-    <t>Hauptgang</t>
   </si>
 </sst>
 </file>
@@ -87,12 +71,120 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="9" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor theme="5" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,8 +199,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -442,126 +552,319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112175AF-47B8-4203-8938-036E19041C2B}">
-  <dimension ref="A8:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A8:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/RunningDinner.xlsx
+++ b/RunningDinner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28800" yWindow="5445" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2355" yWindow="5160" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
@@ -88,59 +88,59 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
+        <bgColor theme="9" tint="0.3999755851924192"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor theme="5" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor rgb="FF7030A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
-        <bgColor theme="9" tint="0.3999755851924192"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor rgb="FF0070C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF00B050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor theme="5" tint="-0.249977111117893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -593,7 +593,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -633,138 +633,138 @@
         </is>
       </c>
       <c r="F9" s="10" t="n"/>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="G9" s="20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="18" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="I9" s="13" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="J9" s="14" t="inlineStr">
+      <c r="J9" s="12" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="K9" s="15" t="inlineStr">
+      <c r="K9" s="13" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="L9" s="16" t="inlineStr">
+      <c r="L9" s="14" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="M9" s="17" t="inlineStr">
+      <c r="M9" s="15" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="G10" s="15" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="H10" s="17" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="J10" s="14" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="G10" s="18" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="H10" s="20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I10" s="11" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="J10" s="16" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="K10" s="17" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="L10" s="16" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="M10" s="12" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="K10" s="11" t="inlineStr">
-        <is>
-          <t>a</t>
+      <c r="N10" s="18" t="inlineStr">
+        <is>
+          <t>Doppelte Teamzuordnung!</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="G11" s="20" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="H11" s="15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="I11" s="14" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="J11" s="12" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="K11" s="20" t="inlineStr">
         <is>
           <t>a</t>
-        </is>
-      </c>
-      <c r="I11" s="13" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="J11" s="18" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="K11" s="19" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="L11" s="18" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="M11" s="14" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="N11" s="20" t="inlineStr">
-        <is>
-          <t>Doppelte Teamzuordnung!</t>
         </is>
       </c>
     </row>
@@ -792,37 +792,37 @@
           <t>b</t>
         </is>
       </c>
-      <c r="G14" s="14" t="inlineStr">
+      <c r="G14" s="12" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="H14" s="11" t="inlineStr">
+      <c r="H14" s="20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="I14" s="15" t="inlineStr">
+      <c r="I14" s="13" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="J14" s="13" t="inlineStr">
+      <c r="J14" s="11" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="K14" s="16" t="inlineStr">
+      <c r="K14" s="14" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="L14" s="18" t="inlineStr">
+      <c r="L14" s="16" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="M14" s="20" t="inlineStr">
+      <c r="M14" s="18" t="inlineStr">
         <is>
           <t>d</t>
         </is>
@@ -844,37 +844,37 @@
           <t>g</t>
         </is>
       </c>
-      <c r="G15" s="13" t="inlineStr">
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="H15" s="11" t="inlineStr">
+      <c r="H15" s="20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="I15" s="20" t="inlineStr">
+      <c r="I15" s="18" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="J15" s="14" t="inlineStr">
+      <c r="J15" s="12" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="K15" s="16" t="inlineStr">
+      <c r="K15" s="14" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="L15" s="19" t="inlineStr">
+      <c r="L15" s="17" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="M15" s="17" t="inlineStr">
+      <c r="M15" s="15" t="inlineStr">
         <is>
           <t>f</t>
         </is>
@@ -896,52 +896,52 @@
           <t>i</t>
         </is>
       </c>
-      <c r="G16" s="17" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="H16" s="15" t="inlineStr">
+      <c r="G16" s="15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="H16" s="13" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="I16" s="16" t="inlineStr">
+      <c r="I16" s="14" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="J16" s="18" t="inlineStr">
+      <c r="J16" s="16" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="K16" s="19" t="inlineStr">
+      <c r="K16" s="17" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="L16" s="16" t="inlineStr">
+      <c r="L16" s="14" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="M16" s="11" t="inlineStr">
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="N16" s="19" t="inlineStr">
+      <c r="N16" s="17" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="O16" s="13" t="inlineStr">
+      <c r="O16" s="11" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="P16" s="20" t="inlineStr">
+      <c r="P16" s="18" t="inlineStr">
         <is>
           <t>Doppelte Teamzuordnung!</t>
         </is>
@@ -971,42 +971,42 @@
           <t>f</t>
         </is>
       </c>
-      <c r="G19" s="16" t="inlineStr">
+      <c r="G19" s="14" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="H19" s="15" t="inlineStr">
+      <c r="H19" s="13" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="I19" s="17" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="J19" s="13" t="inlineStr">
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="J19" s="11" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="K19" s="14" t="inlineStr">
+      <c r="K19" s="12" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="L19" s="11" t="inlineStr">
+      <c r="L19" s="20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="M19" s="17" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="N19" s="20" t="inlineStr">
+      <c r="M19" s="15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="N19" s="18" t="inlineStr">
         <is>
           <t>Doppelte Teamzuordnung!</t>
         </is>
@@ -1028,42 +1028,42 @@
           <t>d</t>
         </is>
       </c>
-      <c r="G20" s="18" t="inlineStr">
+      <c r="G20" s="16" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="H20" s="20" t="inlineStr">
+      <c r="H20" s="18" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="I20" s="19" t="inlineStr">
+      <c r="I20" s="17" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="J20" s="17" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="K20" s="19" t="inlineStr">
+      <c r="J20" s="15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K20" s="17" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="L20" s="14" t="inlineStr">
+      <c r="L20" s="12" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="M20" s="20" t="inlineStr">
+      <c r="M20" s="18" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="N20" s="20" t="inlineStr">
+      <c r="N20" s="18" t="inlineStr">
         <is>
           <t>Doppelte Teamzuordnung!</t>
         </is>
@@ -1085,42 +1085,42 @@
           <t>f</t>
         </is>
       </c>
-      <c r="G21" s="19" t="inlineStr">
+      <c r="G21" s="17" t="inlineStr">
         <is>
           <t>i</t>
         </is>
       </c>
-      <c r="H21" s="20" t="inlineStr">
+      <c r="H21" s="18" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="I21" s="18" t="inlineStr">
+      <c r="I21" s="16" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="J21" s="17" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="K21" s="18" t="inlineStr">
+      <c r="J21" s="15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K21" s="16" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="L21" s="13" t="inlineStr">
+      <c r="L21" s="11" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="M21" s="17" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="N21" s="20" t="inlineStr">
+      <c r="M21" s="15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="N21" s="18" t="inlineStr">
         <is>
           <t>Doppelte Teamzuordnung!</t>
         </is>
